--- a/original/9_要件定義技法ガイド/チェックリスト/要件定義工程クライテリア項目一覧.xlsx
+++ b/original/9_要件定義技法ガイド/チェックリスト/要件定義工程クライテリア項目一覧.xlsx
@@ -20,7 +20,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="2">要件定義Entry!$5:$7</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="3">要件定義Exit!$5:$7</definedName>
   </definedNames>
-  <calcPr calcId="145621" calcMode="manual"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -3891,16 +3891,6 @@
     <phoneticPr fontId="19"/>
   </si>
   <si>
-    <t>TIS株式会社</t>
-    <rPh sb="1" eb="3">
-      <t>カブシキ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>カイシャ</t>
-    </rPh>
-    <phoneticPr fontId="19"/>
-  </si>
-  <si>
     <t xml:space="preserve">この 作品 は </t>
     <phoneticPr fontId="26"/>
   </si>
@@ -3910,6 +3900,9 @@
   </si>
   <si>
     <t>の下に提供されています。</t>
+  </si>
+  <si>
+    <t>要件定義フレームワーク©2018 TIS INC. クリエイティブ・コモンズ・ライセンス（表示-継承 4.0 国際）</t>
   </si>
 </sst>
 </file>
@@ -5100,6 +5093,42 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5117,42 +5146,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -6776,9 +6769,7 @@
       <c r="O31" s="131"/>
       <c r="P31" s="131"/>
       <c r="Q31" s="131"/>
-      <c r="R31" s="142" t="s">
-        <v>211</v>
-      </c>
+      <c r="R31" s="142"/>
       <c r="S31" s="131"/>
       <c r="T31" s="131"/>
       <c r="U31" s="131"/>
@@ -7051,12 +7042,12 @@
     <row r="39" spans="1:34" ht="13.5" customHeight="1">
       <c r="A39" s="131"/>
       <c r="B39" s="131" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C39" s="131"/>
       <c r="D39" s="131"/>
       <c r="E39" s="149" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F39" s="131"/>
       <c r="G39" s="131"/>
@@ -7071,7 +7062,7 @@
       <c r="P39" s="146"/>
       <c r="Q39" s="147"/>
       <c r="R39" s="147" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="S39" s="146"/>
       <c r="T39" s="131"/>
@@ -7090,7 +7081,11 @@
       <c r="AG39" s="131"/>
       <c r="AH39" s="131"/>
     </row>
-    <row r="40" spans="1:34" ht="13.5" customHeight="1"/>
+    <row r="40" spans="1:34" ht="13.5" customHeight="1">
+      <c r="B40" s="134" t="s">
+        <v>214</v>
+      </c>
+    </row>
     <row r="41" spans="1:34" ht="13.5" customHeight="1"/>
     <row r="42" spans="1:34" ht="13.5" customHeight="1"/>
     <row r="43" spans="1:34" ht="13.5" customHeight="1"/>
@@ -7568,7 +7563,7 @@
     <hyperlink ref="E39" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" verticalDpi="0" r:id="rId2"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId2"/>
   <drawing r:id="rId3"/>
 </worksheet>
 </file>
@@ -7650,7 +7645,7 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C- &amp;P -</oddFooter>
   </headerFooter>
@@ -7681,39 +7676,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A1" s="164" t="s">
+      <c r="A1" s="158" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="165"/>
-      <c r="C1" s="165"/>
-      <c r="D1" s="165"/>
-      <c r="E1" s="165"/>
-      <c r="F1" s="165"/>
-      <c r="G1" s="165"/>
+      <c r="B1" s="159"/>
+      <c r="C1" s="159"/>
+      <c r="D1" s="159"/>
+      <c r="E1" s="159"/>
+      <c r="F1" s="159"/>
+      <c r="G1" s="159"/>
       <c r="H1" s="89"/>
       <c r="K1" s="18"/>
       <c r="L1" s="18"/>
     </row>
     <row r="2" spans="1:12" ht="14.25" customHeight="1">
-      <c r="A2" s="164"/>
-      <c r="B2" s="165"/>
-      <c r="C2" s="165"/>
-      <c r="D2" s="165"/>
-      <c r="E2" s="165"/>
-      <c r="F2" s="165"/>
-      <c r="G2" s="165"/>
+      <c r="A2" s="158"/>
+      <c r="B2" s="159"/>
+      <c r="C2" s="159"/>
+      <c r="D2" s="159"/>
+      <c r="E2" s="159"/>
+      <c r="F2" s="159"/>
+      <c r="G2" s="159"/>
       <c r="H2" s="89"/>
       <c r="K2" s="18"/>
       <c r="L2" s="18"/>
     </row>
     <row r="3" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A3" s="164"/>
-      <c r="B3" s="165"/>
-      <c r="C3" s="165"/>
-      <c r="D3" s="165"/>
-      <c r="E3" s="165"/>
-      <c r="F3" s="165"/>
-      <c r="G3" s="165"/>
+      <c r="A3" s="158"/>
+      <c r="B3" s="159"/>
+      <c r="C3" s="159"/>
+      <c r="D3" s="159"/>
+      <c r="E3" s="159"/>
+      <c r="F3" s="159"/>
+      <c r="G3" s="159"/>
       <c r="H3" s="89"/>
     </row>
     <row r="4" spans="1:12" ht="14.25" thickBot="1">
@@ -7727,48 +7722,48 @@
       <c r="H4" s="90"/>
     </row>
     <row r="5" spans="1:12" ht="18" customHeight="1">
-      <c r="A5" s="169" t="s">
+      <c r="A5" s="163" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="170"/>
-      <c r="C5" s="170"/>
-      <c r="D5" s="170"/>
-      <c r="E5" s="170"/>
-      <c r="F5" s="170"/>
-      <c r="G5" s="170"/>
-      <c r="H5" s="171"/>
+      <c r="B5" s="164"/>
+      <c r="C5" s="164"/>
+      <c r="D5" s="164"/>
+      <c r="E5" s="164"/>
+      <c r="F5" s="164"/>
+      <c r="G5" s="164"/>
+      <c r="H5" s="165"/>
     </row>
     <row r="6" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A6" s="172" t="s">
+      <c r="A6" s="166" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="174" t="s">
+      <c r="B6" s="168" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="174" t="s">
+      <c r="C6" s="168" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="174" t="s">
+      <c r="D6" s="168" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="174" t="s">
+      <c r="E6" s="168" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="158" t="s">
+      <c r="F6" s="170" t="s">
         <v>26</v>
       </c>
-      <c r="G6" s="159"/>
-      <c r="H6" s="160"/>
+      <c r="G6" s="171"/>
+      <c r="H6" s="172"/>
     </row>
     <row r="7" spans="1:12" ht="14.25" thickBot="1">
-      <c r="A7" s="173"/>
-      <c r="B7" s="175"/>
-      <c r="C7" s="175"/>
-      <c r="D7" s="175"/>
-      <c r="E7" s="175"/>
-      <c r="F7" s="161"/>
-      <c r="G7" s="162"/>
-      <c r="H7" s="163"/>
+      <c r="A7" s="167"/>
+      <c r="B7" s="169"/>
+      <c r="C7" s="169"/>
+      <c r="D7" s="169"/>
+      <c r="E7" s="169"/>
+      <c r="F7" s="173"/>
+      <c r="G7" s="174"/>
+      <c r="H7" s="175"/>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="84">
@@ -9290,11 +9285,11 @@
       <c r="E116" s="14">
         <v>4</v>
       </c>
-      <c r="F116" s="166" t="s">
+      <c r="F116" s="160" t="s">
         <v>100</v>
       </c>
-      <c r="G116" s="167"/>
-      <c r="H116" s="168"/>
+      <c r="G116" s="161"/>
+      <c r="H116" s="162"/>
     </row>
     <row r="117" spans="1:15">
       <c r="A117" s="17"/>
@@ -9457,10 +9452,6 @@
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="E6:E7"/>
     <mergeCell ref="F6:H7"/>
-    <mergeCell ref="F35:H35"/>
-    <mergeCell ref="F38:H38"/>
-    <mergeCell ref="F39:H39"/>
-    <mergeCell ref="F42:H42"/>
     <mergeCell ref="F16:H16"/>
     <mergeCell ref="F17:H17"/>
     <mergeCell ref="F20:H20"/>
@@ -9471,13 +9462,17 @@
     <mergeCell ref="F12:H12"/>
     <mergeCell ref="F13:H13"/>
     <mergeCell ref="F14:H14"/>
-    <mergeCell ref="F34:H34"/>
     <mergeCell ref="F43:H43"/>
     <mergeCell ref="F26:H26"/>
     <mergeCell ref="F27:H27"/>
     <mergeCell ref="F28:H28"/>
     <mergeCell ref="F30:H30"/>
     <mergeCell ref="F33:H33"/>
+    <mergeCell ref="F35:H35"/>
+    <mergeCell ref="F38:H38"/>
+    <mergeCell ref="F39:H39"/>
+    <mergeCell ref="F42:H42"/>
+    <mergeCell ref="F34:H34"/>
     <mergeCell ref="F59:H59"/>
     <mergeCell ref="F61:H61"/>
     <mergeCell ref="F62:H62"/>
@@ -9557,39 +9552,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A1" s="164" t="s">
+      <c r="A1" s="158" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="165"/>
-      <c r="C1" s="165"/>
-      <c r="D1" s="165"/>
-      <c r="E1" s="165"/>
-      <c r="F1" s="165"/>
-      <c r="G1" s="165"/>
+      <c r="B1" s="159"/>
+      <c r="C1" s="159"/>
+      <c r="D1" s="159"/>
+      <c r="E1" s="159"/>
+      <c r="F1" s="159"/>
+      <c r="G1" s="159"/>
       <c r="H1" s="88"/>
       <c r="K1" s="18"/>
       <c r="L1" s="18"/>
     </row>
     <row r="2" spans="1:12" ht="14.25" customHeight="1">
-      <c r="A2" s="164"/>
-      <c r="B2" s="165"/>
-      <c r="C2" s="165"/>
-      <c r="D2" s="165"/>
-      <c r="E2" s="165"/>
-      <c r="F2" s="165"/>
-      <c r="G2" s="165"/>
+      <c r="A2" s="158"/>
+      <c r="B2" s="159"/>
+      <c r="C2" s="159"/>
+      <c r="D2" s="159"/>
+      <c r="E2" s="159"/>
+      <c r="F2" s="159"/>
+      <c r="G2" s="159"/>
       <c r="H2" s="88"/>
       <c r="K2" s="18"/>
       <c r="L2" s="18"/>
     </row>
     <row r="3" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A3" s="164"/>
-      <c r="B3" s="165"/>
-      <c r="C3" s="165"/>
-      <c r="D3" s="165"/>
-      <c r="E3" s="165"/>
-      <c r="F3" s="165"/>
-      <c r="G3" s="165"/>
+      <c r="A3" s="158"/>
+      <c r="B3" s="159"/>
+      <c r="C3" s="159"/>
+      <c r="D3" s="159"/>
+      <c r="E3" s="159"/>
+      <c r="F3" s="159"/>
+      <c r="G3" s="159"/>
       <c r="H3" s="88"/>
     </row>
     <row r="4" spans="1:12" ht="14.25" thickBot="1">
@@ -9603,31 +9598,31 @@
       <c r="H4" s="24"/>
     </row>
     <row r="5" spans="1:12" ht="18" customHeight="1">
-      <c r="A5" s="169" t="s">
+      <c r="A5" s="163" t="s">
         <v>45</v>
       </c>
-      <c r="B5" s="170"/>
-      <c r="C5" s="170"/>
-      <c r="D5" s="170"/>
-      <c r="E5" s="170"/>
-      <c r="F5" s="170"/>
-      <c r="G5" s="170"/>
-      <c r="H5" s="171"/>
+      <c r="B5" s="164"/>
+      <c r="C5" s="164"/>
+      <c r="D5" s="164"/>
+      <c r="E5" s="164"/>
+      <c r="F5" s="164"/>
+      <c r="G5" s="164"/>
+      <c r="H5" s="165"/>
     </row>
     <row r="6" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A6" s="172" t="s">
+      <c r="A6" s="166" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="174" t="s">
+      <c r="B6" s="168" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="174" t="s">
+      <c r="C6" s="168" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="174" t="s">
+      <c r="D6" s="168" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="174" t="s">
+      <c r="E6" s="168" t="s">
         <v>23</v>
       </c>
       <c r="F6" s="185" t="s">
@@ -9637,11 +9632,11 @@
       <c r="H6" s="187"/>
     </row>
     <row r="7" spans="1:12" ht="14.25" thickBot="1">
-      <c r="A7" s="173"/>
-      <c r="B7" s="175"/>
-      <c r="C7" s="175"/>
-      <c r="D7" s="175"/>
-      <c r="E7" s="175"/>
+      <c r="A7" s="167"/>
+      <c r="B7" s="169"/>
+      <c r="C7" s="169"/>
+      <c r="D7" s="169"/>
+      <c r="E7" s="169"/>
       <c r="F7" s="188"/>
       <c r="G7" s="189"/>
       <c r="H7" s="190"/>
